--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/10/seed3/result_data_RandomForest.xlsx
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.43429999999999</v>
+        <v>16.45659999999999</v>
       </c>
     </row>
     <row r="11">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.06290000000001</v>
+        <v>17.9906</v>
       </c>
     </row>
     <row r="13">
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>17.50110000000002</v>
+        <v>17.66510000000002</v>
       </c>
     </row>
     <row r="19">
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.68480000000001</v>
+        <v>16.68320000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.614</v>
+        <v>16.64460000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.2277</v>
+        <v>17.21150000000002</v>
       </c>
     </row>
     <row r="69">
@@ -1749,7 +1749,7 @@
         <v>-6.2</v>
       </c>
       <c r="E77" t="n">
-        <v>18.49840000000003</v>
+        <v>18.21230000000003</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.54230000000003</v>
+        <v>16.51870000000003</v>
       </c>
     </row>
     <row r="79">
